--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\descriptive-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113339D6-6A81-4029-BD59-40B38F3434FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAAAC7A-960B-4FBF-BFD1-8215F798C30D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10272" windowHeight="6564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -152,6 +152,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,9 +210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,6 +217,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:G10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -545,28 +555,28 @@
     <col min="7" max="7" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -589,7 +599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -612,7 +622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -631,11 +641,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -658,8 +668,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
@@ -677,8 +687,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -690,7 +700,7 @@
       <c r="D7" s="1">
         <v>196.10000610351563</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>-2.8</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -699,10 +709,10 @@
       <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -724,8 +734,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -747,31 +757,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>74</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>22</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\descriptive-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAAAC7A-960B-4FBF-BFD1-8215F798C30D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E63F078-EB15-49BA-BCA6-C8BB18AEF2E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10272" windowHeight="6564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Variables</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>(5.3)</t>
+  </si>
+  <si>
+    <t>Table. Descriptive statistics</t>
+  </si>
+  <si>
+    <t>Source: Stata. Notes: Standard errors in parentheses. Significance for mean tests between treated and not treated: * significant at 10%, ** significant at 5%, and *** significant at 1%.</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -197,11 +203,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,9 +234,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -220,9 +241,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -555,248 +596,297 @@
     <col min="7" max="7" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>6165.2998046875</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>6072.39990234375</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>21.299999237060547</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>19.799999237060547</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>13.800000190734863</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>14.800000190734863</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>3.2000000476837158</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>187.89999389648438</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>196.10000610351563</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="4">
         <v>-2.8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9" t="s">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>39.599998474121094</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>41.400001525878906</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>197.30000305175781</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>233.69999694824219</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="6">
         <v>74</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="6">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="G13" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:G14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:G6 C8:G9 C7:D7 F7:G7 F10" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:G7 C9:G10 C8:D8 F8:G8 F11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>